--- a/excelReportAssessment.xlsx
+++ b/excelReportAssessment.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -67,6 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>

--- a/excelReportAssessment.xlsx
+++ b/excelReportAssessment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>

--- a/excelReportAssessment.xlsx
+++ b/excelReportAssessment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Matttt</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -411,6 +417,9 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -422,16 +431,22 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -443,6 +458,9 @@
       </c>
       <c r="C6" t="s">
         <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/excelReportAssessment.xlsx
+++ b/excelReportAssessment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
